--- a/fuentes/contenidos/grado11/guion04/SolicitudGrafica_CN_11_04_CO_REC70.xlsx
+++ b/fuentes/contenidos/grado11/guion04/SolicitudGrafica_CN_11_04_CO_REC70.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos E\Aula Planeta\Autor\Física\CN_11_04_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4455" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="205">
   <si>
     <t>Fecha:</t>
   </si>
@@ -627,12 +627,27 @@
   </si>
   <si>
     <t>Hacer esta imagen (o usar la que puse). El ángulo debe ser de 45°; es importante que en verdad ese sea el ángulo de la recta en la imagen.</t>
+  </si>
+  <si>
+    <t>Rayo perpendicular al plano</t>
+  </si>
+  <si>
+    <t>Rayo paralelo al plano</t>
+  </si>
+  <si>
+    <t>Ilustrar</t>
+  </si>
+  <si>
+    <t>Ilustrar. Nótese que hay una línea negra sobre la roja.</t>
+  </si>
+  <si>
+    <t>Ilustrar. Hacer que, como en las imágenes anteriores, la recta horizintal sea azul y tenga el texto "Superficie de refracción", y la vertical sea roja y con el texto "Recta normal".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1772,7 +1787,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,8 +1812,8 @@
       <xdr:rowOff>43962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18886</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2409415</xdr:rowOff>
     </xdr:to>
@@ -1895,6 +1910,196 @@
         <a:xfrm>
           <a:off x="16450436" y="9627578"/>
           <a:ext cx="4454858" cy="3253153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2588519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16588153" y="14459683"/>
+          <a:ext cx="3280397" cy="2460298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3033345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>727945</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3101759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16676077" y="17364807"/>
+          <a:ext cx="4156945" cy="3131067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581983</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4383404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="24926192"/>
+          <a:ext cx="5974598" cy="4383404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>824399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4200508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16497300" y="20955000"/>
+          <a:ext cx="4443899" cy="4200508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5181600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>722995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3670110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16554450" y="26136600"/>
+          <a:ext cx="5123545" cy="3670110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2621,9 +2826,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3133,182 +3338,226 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_04_CO_REC70_IMG06n.png</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_REC70_IMG06a.png</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="64"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>203</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_04_CO_REC70_IMG07n.png</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_REC70_IMG07a.png</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="66"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>202</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_04_CO_REC70_IMG08n.png</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_REC70_IMG08a.png</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="K17" s="66" t="s">
+        <v>204</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="360" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_04_CO_REC70_IMG09n.png</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_REC70_IMG09a.png</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="K18" s="66" t="s">
+        <v>204</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>189</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_11_04_CO_REC70_IMG10n.png</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_11_04_CO_REC70_IMG10a.png</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="K19" s="68" t="s">
+        <v>204</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
